--- a/Data/minimum_data_granger_simulation.xlsx
+++ b/Data/minimum_data_granger_simulation.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Not Granger_Causal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
